--- a/pred_ohlcv/54_21/2019-10-27 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 CHR ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>228506.87460462</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>228779.3928046199</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>226726.3928046199</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>226726.3928046199</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>226726.3928046199</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>226726.3928046199</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>226738.3928046199</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>122394.3865046199</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>196020.19890462</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>196020.19890462</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>196020.19890462</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>228155.63300462</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>249329.04820462</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>281452.48230462</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>320220.73700462</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>320220.73700462</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>660078.4528046199</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>746329.9458046199</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>746329.9458046199</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>914886.50020462</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1038435.57000462</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>795338.8224046199</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>924250.76610462</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>720357.37470462</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>318258.89817512</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>361956.12447512</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>303544.87137512</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>61330.04537512001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>151474.31487512</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>92461.57957512001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>249719.90537512</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>430860.09457512</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>369746.65817512</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>315131.07197512</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>254847.44467512</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>184133.91997512</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>197133.91997512</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-16686.91072488</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-54460.93102488</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-42967.10312488</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-45878.04562488</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-10021.50922488</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-39425.35022487999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-232496.99812488</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-242352.16982488</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-347228.52972488</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-344043.23832488</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-360833.92792488</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-449504.39132488</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-423662.75882488</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-431645.05162488</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-425926.4537248801</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-425916.4537248801</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-425928.4537248801</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-420934.8852248801</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-320485.2599248801</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-242747.9754248801</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-242747.9754248801</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-245059.1465248801</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-241207.7850248801</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-244658.8008248801</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-244658.8008248801</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-233638.6508248801</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-180438.8545985601</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-153066.6157985601</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-106853.2817985601</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-37230.28179856006</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-48155.14049856006</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-58774.97049856006</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-95387.15999856006</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-83563.35039856005</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>9550.900501439944</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-73567.03839856006</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-73567.03839856006</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-73947.49939856006</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-73947.49939856006</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-73947.49939856006</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>6507.452901439945</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 CHR ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>226726.3928046199</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>196020.19890462</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>228155.63300462</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>746329.9458046199</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>746329.9458046199</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>914886.50020462</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1038435.57000462</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>795338.8224046199</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>760135.96384008</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>318258.89817512</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>303544.87137512</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>61330.04537512001</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>151474.31487512</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>92461.57957512001</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>249719.90537512</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>430860.09457512</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>315131.07197512</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>254847.44467512</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>184133.91997512</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>197133.91997512</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-16686.91072488</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-54460.93102488</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-42967.10312488</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-45878.04562488</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-10021.50922488</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-39425.35022487999</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-232496.99812488</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-242352.16982488</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-347228.52972488</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-344043.23832488</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-360833.92792488</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-449504.39132488</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-423662.75882488</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-431645.05162488</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-425926.4537248801</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-425916.4537248801</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-425928.4537248801</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-420092.0742248801</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-241195.9331248801</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-237574.7850248801</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-237574.7850248801</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-228096.6508248801</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-85483.89012488007</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-85483.89012488007</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>36190.61157511992</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>23236.61157511992</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>53102.51287511992</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-88636.43689856009</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-142721.2309985601</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-142721.2309985601</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-180415.8545985601</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-180438.8545985601</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-153066.6157985601</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-106853.2817985601</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-37230.28179856006</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-38619.71109856006</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-48155.14049856006</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-48155.14049856006</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-50696.12379856006</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-41874.71879856006</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-58774.97049856006</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-95387.15999856006</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-83563.35039856005</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>9550.900501439944</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-67117.50859856006</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-73567.03839856006</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-73567.03839856006</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-73947.49939856006</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-73947.49939856006</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-73947.49939856006</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-70814.83659856005</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-65894.67149856006</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>6507.452901439945</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-75870.22349856005</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
